--- a/results/logistic/dilemma/confidence/0.15/sum_scores.xlsx
+++ b/results/logistic/dilemma/confidence/0.15/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="225">
   <si>
     <t>negative</t>
   </si>
@@ -49,595 +49,595 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>other</t>
+    <t>down</t>
   </si>
   <si>
     <t>fake</t>
   </si>
   <si>
-    <t>down</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>serious</t>
+    <t>long</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>sad</t>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>single</t>
   </si>
   <si>
     <t>mean</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>dark</t>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>faster</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>software</t>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>at</t>
   </si>
   <si>
     <t>guilty</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>few</t>
+    <t>least</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>mad</t>
   </si>
   <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>ya</t>
   </si>
   <si>
     <t>t</t>
   </si>
   <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>spreads</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>ins</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>watched</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>concerning</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>extremely</t>
   </si>
   <si>
     <t>shocked</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>drugs</t>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>silicon</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>but</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>completely</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>stomach</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>because</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>algorithms</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>blowing</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>controlled</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>dea</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>extremely</t>
-  </si>
-  <si>
-    <t>warfare</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>has</t>
+    <t>of</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>be</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>wonder</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>action</t>
   </si>
   <si>
     <t>live</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>"</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>paying</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>how</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>user</t>
+    <t>business</t>
+  </si>
+  <si>
+    <t>engagement</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>ti</t>
   </si>
   <si>
     <t>mani</t>
   </si>
   <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>yourself</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>doubt</t>
   </si>
   <si>
     <t>yesterday</t>
   </si>
   <si>
-    <t>about</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>super</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>school</t>
+    <t>such</t>
+  </si>
+  <si>
+    <t>discussion</t>
   </si>
   <si>
     <t>high</t>
@@ -646,70 +646,46 @@
     <t>critics</t>
   </si>
   <si>
-    <t>wondered</t>
+    <t>said</t>
+  </si>
+  <si>
+    <t>polar</t>
   </si>
   <si>
     <t>advanced</t>
   </si>
   <si>
-    <t>action</t>
+    <t>arthur</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>such</t>
-  </si>
-  <si>
-    <t>aware</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>accurate</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>so</t>
   </si>
   <si>
     <t>india</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>po</t>
-  </si>
-  <si>
-    <t>credits</t>
-  </si>
-  <si>
-    <t>by</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>gotten</t>
-  </si>
-  <si>
-    <t>then</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>always</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>wasn</t>
   </si>
   <si>
     <t>platform</t>
@@ -1070,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q126"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1139,13 +1115,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1632928475033738</v>
+        <v>0.162534435261708</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D3">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1157,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K3">
-        <v>0.1911554921540656</v>
+        <v>0.1673699015471167</v>
       </c>
       <c r="L3">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="M3">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1181,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>964</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1189,13 +1165,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.08636977058029689</v>
+        <v>0.08677685950413223</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1207,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K4">
-        <v>0.1141226818830243</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1231,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1239,13 +1215,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.04048582995951417</v>
+        <v>0.0440771349862259</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1257,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K5">
-        <v>0.06419400855920114</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="L5">
         <v>45</v>
@@ -1289,13 +1265,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.03778677462887989</v>
+        <v>0.04269972451790634</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1307,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K6">
-        <v>0.06276747503566334</v>
+        <v>0.05766526019690577</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1331,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1339,13 +1315,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03373819163292847</v>
+        <v>0.03168044077134986</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1357,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K7">
-        <v>0.05706134094151213</v>
+        <v>0.05625879043600562</v>
       </c>
       <c r="L7">
         <v>40</v>
@@ -1381,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1389,7 +1365,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.02968960863697706</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -1407,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K8">
-        <v>0.03281027104136947</v>
+        <v>0.0309423347398031</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1431,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1439,13 +1415,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0242914979757085</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1457,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K9">
-        <v>0.03138373751783167</v>
+        <v>0.02953586497890295</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1481,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1489,13 +1465,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02294197031039136</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1507,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K10">
-        <v>0.02710413694721826</v>
+        <v>0.02672292545710267</v>
       </c>
       <c r="L10">
         <v>19</v>
@@ -1531,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1539,13 +1515,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02294197031039136</v>
+        <v>0.02617079889807163</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1557,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="K11">
-        <v>0.02567760342368046</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="L11">
         <v>18</v>
@@ -1589,31 +1565,31 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02159244264507422</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>2767</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K12">
-        <v>0.02567760342368046</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="L12">
         <v>18</v>
@@ -1631,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1639,13 +1615,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02159244264507422</v>
+        <v>0.02341597796143251</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1657,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K13">
-        <v>0.02425106990014265</v>
+        <v>0.01828410689170183</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1689,31 +1665,31 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02024291497975709</v>
+        <v>0.02203856749311295</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2771</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K14">
-        <v>0.01854493580599144</v>
+        <v>0.01828410689170183</v>
       </c>
       <c r="L14">
         <v>13</v>
@@ -1731,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1739,13 +1715,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.02024291497975709</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1757,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K15">
-        <v>0.01854493580599144</v>
+        <v>0.01828410689170183</v>
       </c>
       <c r="L15">
         <v>13</v>
@@ -1781,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1789,13 +1765,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02024291497975709</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1807,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K16">
-        <v>0.01426533523537803</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1831,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1839,49 +1815,49 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01889338731443995</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>14</v>
       </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="J17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17">
+        <v>0.01547116736990155</v>
+      </c>
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>7</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K17">
-        <v>0.01426533523537803</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17">
-        <v>10</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1889,13 +1865,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01754385964912281</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1907,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="K18">
-        <v>0.01283880171184023</v>
+        <v>0.01406469760900141</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1931,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1939,13 +1915,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01619433198380567</v>
+        <v>0.01377410468319559</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1957,19 +1933,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K19">
-        <v>0.009985734664764621</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1981,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1989,7 +1965,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01349527665317139</v>
+        <v>0.01377410468319559</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -2010,16 +1986,16 @@
         <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K20">
-        <v>0.009985734664764621</v>
+        <v>0.01125175808720113</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2031,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2039,13 +2015,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01349527665317139</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2057,19 +2033,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K21">
-        <v>0.009985734664764621</v>
+        <v>0.01125175808720113</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2081,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2089,7 +2065,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01214574898785425</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -2107,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K22">
-        <v>0.009985734664764621</v>
+        <v>0.009845288326300985</v>
       </c>
       <c r="L22">
         <v>7</v>
@@ -2131,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2139,13 +2115,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01079622132253711</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2157,31 +2133,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K23">
-        <v>0.008559201141226819</v>
+        <v>0.009845288326300985</v>
       </c>
       <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>6</v>
-      </c>
-      <c r="M23">
-        <v>6</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2189,49 +2165,49 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01079622132253711</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24">
+        <v>0.008438818565400843</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24">
         <v>8</v>
       </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>8</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24">
-        <v>0.007132667617689016</v>
-      </c>
-      <c r="L24">
-        <v>5</v>
-      </c>
-      <c r="M24">
-        <v>5</v>
-      </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>954</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2239,13 +2215,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.009446693657219974</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2257,19 +2233,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K25">
-        <v>0.005706134094151213</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2281,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2289,13 +2265,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009446693657219974</v>
+        <v>0.01101928374655647</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2307,19 +2283,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K26">
-        <v>0.005706134094151213</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2331,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>111</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2339,13 +2315,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.009446693657219974</v>
+        <v>0.01101928374655647</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2357,19 +2333,19 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27">
+        <v>0.008438818565400843</v>
+      </c>
+      <c r="L27">
         <v>6</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K27">
-        <v>0.005706134094151213</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
       <c r="M27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2381,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2389,7 +2365,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.009446693657219974</v>
+        <v>0.009641873278236915</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -2407,19 +2383,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K28">
-        <v>0.005706134094151213</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2431,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2439,37 +2415,37 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.008097165991902834</v>
+        <v>0.009641873278236915</v>
       </c>
       <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>6</v>
       </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>48</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K29">
-        <v>0.005706134094151213</v>
+        <v>0.007032348804500703</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2481,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2489,49 +2465,49 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.008097165991902834</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
+        <v>3919</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30">
+        <v>0.007032348804500703</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>22</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K30">
-        <v>0.005706134094151213</v>
-      </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2539,7 +2515,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.008097165991902834</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2557,19 +2533,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K31">
-        <v>0.00427960057061341</v>
+        <v>0.005625879043600563</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2581,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2589,7 +2565,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.008097165991902834</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -2607,19 +2583,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K32">
-        <v>0.00427960057061341</v>
+        <v>0.005625879043600563</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2631,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>342</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2639,13 +2615,13 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.008097165991902834</v>
+        <v>0.006887052341597796</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2657,31 +2633,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K33">
-        <v>0.00427960057061341</v>
+        <v>0.005625879043600563</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33">
         <v>4</v>
       </c>
       <c r="N33">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1732</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2689,7 +2665,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.006747638326585695</v>
+        <v>0.006887052341597796</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -2707,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K34">
-        <v>0.00427960057061341</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L34">
         <v>3</v>
@@ -2731,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2739,7 +2715,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.006747638326585695</v>
+        <v>0.006887052341597796</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -2757,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K35">
-        <v>0.00427960057061341</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L35">
         <v>3</v>
@@ -2781,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>300</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2789,13 +2765,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006747638326585695</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2807,31 +2783,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>446</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="K36">
-        <v>0.00427960057061341</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L36">
         <v>3</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>874</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2839,13 +2815,13 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.006747638326585695</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2857,13 +2833,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K37">
-        <v>0.00427960057061341</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L37">
         <v>3</v>
@@ -2881,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2889,13 +2865,13 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006747638326585695</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2907,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K38">
-        <v>0.00427960057061341</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L38">
         <v>3</v>
@@ -2931,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>92</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2939,13 +2915,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.006747638326585695</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2957,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K39">
-        <v>0.00427960057061341</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L39">
         <v>3</v>
@@ -2981,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2989,7 +2965,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.005398110661268556</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -3007,31 +2983,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="K40">
-        <v>0.00427960057061341</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L40">
         <v>3</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>28</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3039,7 +3015,7 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.005398110661268556</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -3057,31 +3033,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="K41">
-        <v>0.00427960057061341</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L41">
         <v>3</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3089,7 +3065,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.005398110661268556</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -3107,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="K42">
-        <v>0.00427960057061341</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L42">
         <v>3</v>
@@ -3139,7 +3115,7 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005398110661268556</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -3157,19 +3133,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="K43">
-        <v>0.002853067047075606</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3181,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3189,7 +3165,7 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.005398110661268556</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -3207,19 +3183,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K44">
-        <v>0.002853067047075606</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3231,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3239,37 +3215,37 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.004048582995951417</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
       <c r="E45">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>3924</v>
+        <v>8</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="K45">
-        <v>0.002853067047075606</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3281,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>731</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3289,49 +3265,49 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.004048582995951417</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>447</v>
+        <v>603</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="K46">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L46">
         <v>2</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>4</v>
+        <v>729</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3339,7 +3315,7 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.004048582995951417</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -3357,31 +3333,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>368</v>
+        <v>51</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L47">
         <v>2</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>196</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3389,31 +3365,31 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.004048582995951417</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>957</v>
+        <v>10</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K48">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -3431,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>957</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3439,31 +3415,31 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.004048582995951417</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="K49">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -3481,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3489,49 +3465,49 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.004048582995951417</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>365</v>
+        <v>122</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="K50">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L50">
         <v>2</v>
       </c>
       <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>3</v>
-      </c>
-      <c r="N50">
-        <v>0.33</v>
-      </c>
-      <c r="O50">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>1043</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3539,7 +3515,7 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004048582995951417</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -3557,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K51">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L51">
         <v>2</v>
@@ -3581,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>710</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3589,7 +3565,7 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.004048582995951417</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3607,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>953</v>
+        <v>16</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K52">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -3631,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3639,13 +3615,13 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.004048582995951417</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3657,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K53">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -3681,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>12</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3689,13 +3665,13 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.004048582995951417</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3707,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K54">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L54">
         <v>2</v>
@@ -3731,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>11</v>
+        <v>710</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3739,49 +3715,49 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.004048582995951417</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>11</v>
+        <v>954</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="K55">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L55">
         <v>2</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2771</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3789,31 +3765,31 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.004048582995951417</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>778</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K56">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L56">
         <v>2</v>
@@ -3831,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3839,49 +3815,49 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.004048582995951417</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>297</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K57">
+        <v>0.002812939521800281</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
         <v>3</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>16</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K57">
-        <v>0.002853067047075606</v>
-      </c>
-      <c r="L57">
-        <v>2</v>
-      </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>383</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3889,7 +3865,7 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -3907,13 +3883,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="K58">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L58">
         <v>2</v>
@@ -3931,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3939,31 +3915,31 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>779</v>
+        <v>953</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="K59">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L59">
         <v>2</v>
@@ -3981,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3989,31 +3965,31 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>605</v>
+        <v>123</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="K60">
-        <v>0.002853067047075606</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -4031,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>48</v>
+        <v>950</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4039,7 +4015,7 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -4057,31 +4033,31 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="K61">
-        <v>0.001426533523537803</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N61">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>365</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4089,49 +4065,49 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>14</v>
+        <v>729</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="K62">
-        <v>0.001426533523537803</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N62">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>547</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4139,7 +4115,7 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -4157,31 +4133,31 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="K63">
-        <v>0.001426533523537803</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>605</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4189,7 +4165,7 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -4207,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K64">
-        <v>0.001426533523537803</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4231,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>1100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4239,7 +4215,7 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -4257,19 +4233,19 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1145</v>
+        <v>17</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K65">
-        <v>0.001426533523537803</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4281,15 +4257,15 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B66">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4307,89 +4283,89 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="K66">
-        <v>0.001426533523537803</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>3924</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>547</v>
+        <v>10</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K67">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>4</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -4407,13 +4383,13 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K68">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4431,15 +4407,15 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>951</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4460,10 +4436,10 @@
         <v>10</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K69">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4481,15 +4457,15 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>251</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -4507,39 +4483,39 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="K70">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>18</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4560,10 +4536,10 @@
         <v>13</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K71">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4581,15 +4557,15 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002699055330634278</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -4607,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K72">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4631,21 +4607,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002699055330634278</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4657,13 +4633,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K73">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4681,39 +4657,39 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002699055330634278</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>13</v>
+        <v>366</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K74">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4731,21 +4707,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002699055330634278</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4757,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K75">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -4781,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4789,13 +4765,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002699055330634278</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4807,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K76">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4831,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4839,31 +4815,31 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002699055330634278</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K77">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4881,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4889,13 +4865,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002699055330634278</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4907,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K78">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4931,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4939,13 +4915,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002699055330634278</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4957,31 +4933,31 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1141</v>
+        <v>72</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="K79">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>277</v>
+        <v>778</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4989,7 +4965,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -5007,13 +4983,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K80">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -5031,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5039,7 +5015,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5057,13 +5033,13 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K81">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -5081,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5089,31 +5065,31 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>124</v>
+        <v>1044</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K82">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -5131,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>9</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5139,7 +5115,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5157,13 +5133,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K83">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -5181,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>294</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5189,7 +5165,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5207,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K84">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -5231,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5239,31 +5215,31 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0.6699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>1043</v>
+        <v>2</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K85">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -5281,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5289,7 +5265,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5307,31 +5283,31 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="K86">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>11</v>
+        <v>953</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5339,7 +5315,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5357,31 +5333,31 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="K87">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>8</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5389,7 +5365,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5407,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>448</v>
+        <v>75</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="K88">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5431,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5439,7 +5415,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5457,31 +5433,31 @@
         <v>0</v>
       </c>
       <c r="H89">
+        <v>198</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K89">
+        <v>0.001406469760900141</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
         <v>13</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K89">
-        <v>0.001426533523537803</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5489,7 +5465,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5507,13 +5483,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="K90">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5531,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5539,7 +5515,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5557,31 +5533,31 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="K91">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5589,7 +5565,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5607,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="K92">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -5631,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>282</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -5639,7 +5615,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5657,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="K93">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -5681,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>29</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5689,7 +5665,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5707,13 +5683,13 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="K94">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -5731,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -5739,7 +5715,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5757,31 +5733,31 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="K95">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N95">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>876</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5789,31 +5765,31 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>876</v>
+        <v>14</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="K96">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -5831,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -5839,7 +5815,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5857,13 +5833,13 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>287</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K97">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -5881,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -5889,7 +5865,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5907,13 +5883,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="K98">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -5931,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -5939,7 +5915,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5957,13 +5933,13 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="K99">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -5981,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -5989,7 +5965,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6007,13 +5983,13 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="K100">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -6031,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6039,31 +6015,31 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>1732</v>
+        <v>2</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="K101">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -6081,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>615</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6089,7 +6065,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6107,13 +6083,13 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>129</v>
+        <v>340</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="K102">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -6131,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6139,7 +6115,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6157,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K103">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -6189,7 +6165,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6207,13 +6183,13 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="K104">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -6231,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6239,31 +6215,31 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>21</v>
+        <v>874</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K105">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -6281,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6289,7 +6265,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6307,13 +6283,13 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="K106">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -6331,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>15</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6339,7 +6315,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6357,13 +6333,13 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="K107">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -6381,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6389,7 +6365,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6407,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="K108">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L108">
         <v>1</v>
@@ -6431,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -6439,31 +6415,31 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>662</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="K109">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -6481,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6489,7 +6465,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6507,13 +6483,13 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="K110">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -6531,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -6539,7 +6515,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6557,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="K111">
-        <v>0.001426533523537803</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -6581,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -6589,7 +6565,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6607,15 +6583,39 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K112">
+        <v>0.001406469760900141</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6633,15 +6633,39 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K113">
+        <v>0.001406469760900141</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6659,15 +6683,39 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K114">
+        <v>0.001406469760900141</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6685,15 +6733,15 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6711,15 +6759,15 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6737,15 +6785,15 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6763,15 +6811,15 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001349527665317139</v>
+        <v>0.001377410468319559</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -6789,189 +6837,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B120">
-        <v>0.001349527665317139</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120">
         <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121">
-        <v>0.001349527665317139</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122">
-        <v>0.001349527665317139</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123">
-        <v>0.001349527665317139</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124">
-        <v>0.001349527665317139</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125">
-        <v>0.001349527665317139</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126">
-        <v>0.001349527665317139</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126" t="b">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
